--- a/Code/Results/Cases/Case_9_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9414316742815174</v>
+        <v>0.8974882614064938</v>
       </c>
       <c r="C2">
-        <v>0.1328439415563381</v>
+        <v>0.1320759310646693</v>
       </c>
       <c r="D2">
-        <v>0.07010766105062061</v>
+        <v>0.06935547461434055</v>
       </c>
       <c r="E2">
-        <v>0.05325421373236061</v>
+        <v>0.04631448631390533</v>
       </c>
       <c r="F2">
-        <v>1.37204135564285</v>
+        <v>1.081737065100455</v>
       </c>
       <c r="G2">
-        <v>1.375963364195599</v>
+        <v>1.036287965684352</v>
       </c>
       <c r="H2">
-        <v>0.01855321341961969</v>
+        <v>0.01449525042448085</v>
       </c>
       <c r="I2">
-        <v>0.02555526781950856</v>
+        <v>0.01842351787213481</v>
       </c>
       <c r="J2">
-        <v>0.9025553033655882</v>
+        <v>0.7319721332435023</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3341661888006513</v>
       </c>
       <c r="M2">
-        <v>0.7776494984348687</v>
+        <v>0.2943276487503361</v>
       </c>
       <c r="N2">
-        <v>0.1381460898518299</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.202318461392295</v>
+        <v>0.8386556490077908</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.154831163671787</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2002844502728216</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8200393088581563</v>
+        <v>0.7829230267917922</v>
       </c>
       <c r="C3">
-        <v>0.123585431365786</v>
+        <v>0.1188009634781295</v>
       </c>
       <c r="D3">
-        <v>0.06828426820394995</v>
+        <v>0.06614100045241145</v>
       </c>
       <c r="E3">
-        <v>0.04845799294596631</v>
+        <v>0.04282664346313858</v>
       </c>
       <c r="F3">
-        <v>1.282345599133237</v>
+        <v>1.026843094269026</v>
       </c>
       <c r="G3">
-        <v>1.288747404832606</v>
+        <v>0.9922403460239764</v>
       </c>
       <c r="H3">
-        <v>0.02271531808561023</v>
+        <v>0.01780710954128889</v>
       </c>
       <c r="I3">
-        <v>0.03093210225262322</v>
+        <v>0.02233463665203761</v>
       </c>
       <c r="J3">
-        <v>0.8649896889503026</v>
+        <v>0.7083515659703323</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3320304763178044</v>
       </c>
       <c r="M3">
-        <v>0.6765526057215823</v>
+        <v>0.2812653539350585</v>
       </c>
       <c r="N3">
-        <v>0.1212929108378091</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1766474650105998</v>
+        <v>0.7288539685431203</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1366481337334875</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1749455272484752</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7454617278862372</v>
+        <v>0.7123834365446839</v>
       </c>
       <c r="C4">
-        <v>0.1179196259449213</v>
+        <v>0.1107902444873119</v>
       </c>
       <c r="D4">
-        <v>0.06712171949610557</v>
+        <v>0.0641627093728907</v>
       </c>
       <c r="E4">
-        <v>0.04548588349846838</v>
+        <v>0.04065219191313219</v>
       </c>
       <c r="F4">
-        <v>1.227363952466035</v>
+        <v>0.9930888608345185</v>
       </c>
       <c r="G4">
-        <v>1.235088410505853</v>
+        <v>0.9651780389212803</v>
       </c>
       <c r="H4">
-        <v>0.0255792891612554</v>
+        <v>0.02009078203866099</v>
       </c>
       <c r="I4">
-        <v>0.03465145446021145</v>
+        <v>0.02506115652565422</v>
       </c>
       <c r="J4">
-        <v>0.8419277255984525</v>
+        <v>0.6935746153800864</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3303784464430564</v>
       </c>
       <c r="M4">
-        <v>0.6147115378196872</v>
+        <v>0.2738719044495284</v>
       </c>
       <c r="N4">
-        <v>0.1109803610269608</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1608920862339644</v>
+        <v>0.6616446638759612</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.125519098535932</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.159378997946007</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7146993044960084</v>
+        <v>0.6832795487060821</v>
       </c>
       <c r="C5">
-        <v>0.1157173560842111</v>
+        <v>0.1077566171241244</v>
       </c>
       <c r="D5">
-        <v>0.06665276596012326</v>
+        <v>0.0634015341445604</v>
       </c>
       <c r="E5">
-        <v>0.04420651937173936</v>
+        <v>0.03971067528725136</v>
       </c>
       <c r="F5">
-        <v>1.202992943121288</v>
+        <v>0.9777978376690228</v>
       </c>
       <c r="G5">
-        <v>1.210903042334706</v>
+        <v>0.9524442389859331</v>
       </c>
       <c r="H5">
-        <v>0.026831215936858</v>
+        <v>0.02108995415420289</v>
       </c>
       <c r="I5">
-        <v>0.03637523963424183</v>
+        <v>0.02636553743407699</v>
       </c>
       <c r="J5">
-        <v>0.8313583156955389</v>
+        <v>0.6865834575156669</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3290442688796062</v>
       </c>
       <c r="M5">
-        <v>0.5899293727338772</v>
+        <v>0.2705859329865667</v>
       </c>
       <c r="N5">
-        <v>0.1068480555770606</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.154451736717732</v>
+        <v>0.6346352957299928</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1210471025445656</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1530147753539346</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7091566020266384</v>
+        <v>0.6780706904786484</v>
       </c>
       <c r="C6">
-        <v>0.1154823480574549</v>
+        <v>0.1075006308473476</v>
       </c>
       <c r="D6">
-        <v>0.06659417436440052</v>
+        <v>0.06333261371155174</v>
       </c>
       <c r="E6">
-        <v>0.04391954019750699</v>
+        <v>0.03949684403950116</v>
       </c>
       <c r="F6">
-        <v>1.196527326529065</v>
+        <v>0.9734038395062967</v>
       </c>
       <c r="G6">
-        <v>1.20409428791065</v>
+        <v>0.9482600344103389</v>
       </c>
       <c r="H6">
-        <v>0.02705573772866887</v>
+        <v>0.02126899376918756</v>
       </c>
       <c r="I6">
-        <v>0.0368049251798297</v>
+        <v>0.0267351287929305</v>
       </c>
       <c r="J6">
-        <v>0.828174757422147</v>
+        <v>0.684319118946604</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3281166038255776</v>
       </c>
       <c r="M6">
-        <v>0.5862701221853541</v>
+        <v>0.2695243024382137</v>
       </c>
       <c r="N6">
-        <v>0.1062395496558111</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1533578379151201</v>
+        <v>0.6305627413866546</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1203733261220066</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1519365030819131</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7438575212648857</v>
+        <v>0.7110823188733093</v>
       </c>
       <c r="C7">
-        <v>0.1182468905402345</v>
+        <v>0.1112963729653913</v>
       </c>
       <c r="D7">
-        <v>0.06717112436944461</v>
+        <v>0.06440822699233095</v>
       </c>
       <c r="E7">
-        <v>0.0452659119964256</v>
+        <v>0.04048620172054918</v>
       </c>
       <c r="F7">
-        <v>1.220422022854436</v>
+        <v>0.984970497427625</v>
       </c>
       <c r="G7">
-        <v>1.227133927972318</v>
+        <v>0.9618312767187547</v>
       </c>
       <c r="H7">
-        <v>0.02562769154916489</v>
+        <v>0.02014039894028941</v>
       </c>
       <c r="I7">
-        <v>0.03503015045320534</v>
+        <v>0.02547948301263148</v>
       </c>
       <c r="J7">
-        <v>0.8378844977365958</v>
+        <v>0.6828612985830631</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3276146402840254</v>
       </c>
       <c r="M7">
-        <v>0.6156166107055014</v>
+        <v>0.2716906226253215</v>
       </c>
       <c r="N7">
-        <v>0.1111362522899597</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1607380341929598</v>
+        <v>0.6622193323632217</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1256093929990598</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1592401195516864</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8979814448784396</v>
+        <v>0.8570280614085846</v>
       </c>
       <c r="C8">
-        <v>0.1301266086498032</v>
+        <v>0.1279578246998909</v>
       </c>
       <c r="D8">
-        <v>0.06956928622798131</v>
+        <v>0.06881712824232622</v>
       </c>
       <c r="E8">
-        <v>0.05133570368077223</v>
+        <v>0.04492272802727548</v>
       </c>
       <c r="F8">
-        <v>1.332330463550534</v>
+        <v>1.04677280238316</v>
       </c>
       <c r="G8">
-        <v>1.335804349733536</v>
+        <v>1.021985224036214</v>
       </c>
       <c r="H8">
-        <v>0.01995808268426968</v>
+        <v>0.0156427817303611</v>
       </c>
       <c r="I8">
-        <v>0.02774343993942363</v>
+        <v>0.02021011087937019</v>
       </c>
       <c r="J8">
-        <v>0.8844484260231411</v>
+        <v>0.6950484366633418</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3284734354032963</v>
       </c>
       <c r="M8">
-        <v>0.7443856100565256</v>
+        <v>0.2853178634466822</v>
       </c>
       <c r="N8">
-        <v>0.1326093936161215</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1933737591650342</v>
+        <v>0.8016261038230255</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1486824546099044</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1914865269443276</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.202398454212698</v>
+        <v>1.143350056867234</v>
       </c>
       <c r="C9">
-        <v>0.1530765302502957</v>
+        <v>0.1611293898779991</v>
       </c>
       <c r="D9">
-        <v>0.07382394041970031</v>
+        <v>0.07677785405820003</v>
       </c>
       <c r="E9">
-        <v>0.06342454816444132</v>
+        <v>0.05365459260742611</v>
       </c>
       <c r="F9">
-        <v>1.564798248386012</v>
+        <v>1.187184567262904</v>
       </c>
       <c r="G9">
-        <v>1.562100821109567</v>
+        <v>1.141163522204465</v>
       </c>
       <c r="H9">
-        <v>0.01137048828987221</v>
+        <v>0.008831696191957644</v>
       </c>
       <c r="I9">
-        <v>0.01640214561459707</v>
+        <v>0.0119323681318555</v>
       </c>
       <c r="J9">
-        <v>0.982913914986085</v>
+        <v>0.7492437808730728</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3337110535914078</v>
       </c>
       <c r="M9">
-        <v>0.9969957477745766</v>
+        <v>0.3222756796516748</v>
       </c>
       <c r="N9">
-        <v>0.1747026681704114</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2576304248123584</v>
+        <v>1.075697603442478</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.1940751431147874</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2548069837074038</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.423613449980706</v>
+        <v>1.352277332499369</v>
       </c>
       <c r="C10">
-        <v>0.1718609201087418</v>
+        <v>0.1884263676111004</v>
       </c>
       <c r="D10">
-        <v>0.07721241634610365</v>
+        <v>0.08443139456704074</v>
       </c>
       <c r="E10">
-        <v>0.06869612655385104</v>
+        <v>0.05715662216811346</v>
       </c>
       <c r="F10">
-        <v>1.701709399457542</v>
+        <v>1.250680948481488</v>
       </c>
       <c r="G10">
-        <v>1.688037445731709</v>
+        <v>1.217372557057473</v>
       </c>
       <c r="H10">
-        <v>0.007234076813951607</v>
+        <v>0.005646262580827344</v>
       </c>
       <c r="I10">
-        <v>0.01072183597314957</v>
+        <v>0.007981163061519858</v>
       </c>
       <c r="J10">
-        <v>1.035078810850081</v>
+        <v>0.7328812048076827</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3249761819280721</v>
       </c>
       <c r="M10">
-        <v>1.191441623596035</v>
+        <v>0.3402935408019516</v>
       </c>
       <c r="N10">
-        <v>0.1953281122399773</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.299461749153032</v>
+        <v>1.28346408781934</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2161478908116692</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2959661029905476</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.501615820047846</v>
+        <v>1.436931949428555</v>
       </c>
       <c r="C11">
-        <v>0.1976481796438776</v>
+        <v>0.2237947025548976</v>
       </c>
       <c r="D11">
-        <v>0.08519211319283926</v>
+        <v>0.1006198302906824</v>
       </c>
       <c r="E11">
-        <v>0.04713087864716314</v>
+        <v>0.04038685787927587</v>
       </c>
       <c r="F11">
-        <v>1.486684569926183</v>
+        <v>1.068544485373906</v>
       </c>
       <c r="G11">
-        <v>1.428959885729313</v>
+        <v>1.065354355102542</v>
       </c>
       <c r="H11">
-        <v>0.02576181718993453</v>
+        <v>0.02427937003531255</v>
       </c>
       <c r="I11">
-        <v>0.0100684795543371</v>
+        <v>0.007805969100884269</v>
       </c>
       <c r="J11">
-        <v>0.8985572474342121</v>
+        <v>0.5693652184712903</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2640692526946289</v>
       </c>
       <c r="M11">
-        <v>1.337936801642229</v>
+        <v>0.282428440853387</v>
       </c>
       <c r="N11">
-        <v>0.1228798970273814</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2713653799413365</v>
+        <v>1.424637404902256</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1382198933371583</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2683952732900678</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.522224978847788</v>
+        <v>1.465425668731683</v>
       </c>
       <c r="C12">
-        <v>0.2208083270671608</v>
+        <v>0.2505432948812683</v>
       </c>
       <c r="D12">
-        <v>0.09437123333945152</v>
+        <v>0.1145805849933978</v>
       </c>
       <c r="E12">
-        <v>0.03651190407279703</v>
+        <v>0.0333270354569366</v>
       </c>
       <c r="F12">
-        <v>1.298347844350374</v>
+        <v>0.9284106049433944</v>
       </c>
       <c r="G12">
-        <v>1.213386079177056</v>
+        <v>0.9287589899930424</v>
       </c>
       <c r="H12">
-        <v>0.06478841544976888</v>
+        <v>0.06326783810661851</v>
       </c>
       <c r="I12">
-        <v>0.009923686368447093</v>
+        <v>0.007691459489310937</v>
       </c>
       <c r="J12">
-        <v>0.7868565529520311</v>
+        <v>0.4784116116395296</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2249886347132275</v>
       </c>
       <c r="M12">
-        <v>1.421634423759969</v>
+        <v>0.2393433309455091</v>
       </c>
       <c r="N12">
-        <v>0.07232718628847579</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2403513314609569</v>
+        <v>1.501062911138206</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.08354929342802109</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2379048043001681</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.497701808301088</v>
+        <v>1.450099225100729</v>
       </c>
       <c r="C13">
-        <v>0.2434830712368381</v>
+        <v>0.2735029989262472</v>
       </c>
       <c r="D13">
-        <v>0.1049013524294509</v>
+        <v>0.1265004878700893</v>
       </c>
       <c r="E13">
-        <v>0.03328709333158786</v>
+        <v>0.03300033186317375</v>
       </c>
       <c r="F13">
-        <v>1.109510482121749</v>
+        <v>0.807334090267517</v>
       </c>
       <c r="G13">
-        <v>1.007115055547843</v>
+        <v>0.7839472236860416</v>
       </c>
       <c r="H13">
-        <v>0.1213015271808189</v>
+        <v>0.1196048866163011</v>
       </c>
       <c r="I13">
-        <v>0.01059563092437532</v>
+        <v>0.00810877363146556</v>
       </c>
       <c r="J13">
-        <v>0.6817205684812251</v>
+        <v>0.4316171326239129</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1966361502271141</v>
       </c>
       <c r="M13">
-        <v>1.462902629857467</v>
+        <v>0.2036528111357327</v>
       </c>
       <c r="N13">
-        <v>0.03617247766342047</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2054283981164211</v>
+        <v>1.533589122198634</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.04404802342467207</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2035188891361592</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.459819670836254</v>
+        <v>1.419247637844876</v>
       </c>
       <c r="C14">
-        <v>0.260012386486224</v>
+        <v>0.2885145537292857</v>
       </c>
       <c r="D14">
-        <v>0.1132773746093392</v>
+        <v>0.1339335068090648</v>
       </c>
       <c r="E14">
-        <v>0.03545535297130531</v>
+        <v>0.03680213714466873</v>
       </c>
       <c r="F14">
-        <v>0.9781317758852737</v>
+        <v>0.7295456999831345</v>
       </c>
       <c r="G14">
-        <v>0.8686724374937711</v>
+        <v>0.6816652107369521</v>
       </c>
       <c r="H14">
-        <v>0.1713670716022051</v>
+        <v>0.1694800859048655</v>
       </c>
       <c r="I14">
-        <v>0.01156229092309324</v>
+        <v>0.008771963531489568</v>
       </c>
       <c r="J14">
-        <v>0.6118398814007548</v>
+        <v>0.4133283173033107</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1808030518320791</v>
       </c>
       <c r="M14">
-        <v>1.47303974813056</v>
+        <v>0.1819898662041943</v>
       </c>
       <c r="N14">
-        <v>0.0196216094260695</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1796521349450124</v>
+        <v>1.53683019989731</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.02555807896830053</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.178110477626916</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.44056449311509</v>
+        <v>1.402008870147853</v>
       </c>
       <c r="C15">
-        <v>0.2635678770905514</v>
+        <v>0.2913533287117218</v>
       </c>
       <c r="D15">
-        <v>0.1153036159942289</v>
+        <v>0.1350622333891849</v>
       </c>
       <c r="E15">
-        <v>0.03647341114139646</v>
+        <v>0.0381787895186978</v>
       </c>
       <c r="F15">
-        <v>0.9429251830514005</v>
+        <v>0.7111816941799489</v>
       </c>
       <c r="G15">
-        <v>0.8329578436645306</v>
+        <v>0.6536499175871029</v>
       </c>
       <c r="H15">
-        <v>0.1842136796439746</v>
+        <v>0.1822375660894267</v>
       </c>
       <c r="I15">
-        <v>0.01214754258019646</v>
+        <v>0.009230398113212246</v>
       </c>
       <c r="J15">
-        <v>0.5942320495228302</v>
+        <v>0.4136476277497323</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1777512721589254</v>
       </c>
       <c r="M15">
-        <v>1.466504178471638</v>
+        <v>0.1771743774034142</v>
       </c>
       <c r="N15">
-        <v>0.01671874784040384</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1724054055767361</v>
+        <v>1.528324703843367</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.02225117052151582</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1709612313777704</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.349798682441531</v>
+        <v>1.313487171378995</v>
       </c>
       <c r="C16">
-        <v>0.2503990797027171</v>
+        <v>0.2759469737182911</v>
       </c>
       <c r="D16">
-        <v>0.1113261668155516</v>
+        <v>0.1261332620058795</v>
       </c>
       <c r="E16">
-        <v>0.0349275967297844</v>
+        <v>0.03669694084044828</v>
       </c>
       <c r="F16">
-        <v>0.921938477084467</v>
+        <v>0.7230366308338176</v>
       </c>
       <c r="G16">
-        <v>0.820312573636258</v>
+        <v>0.6328686798462257</v>
       </c>
       <c r="H16">
-        <v>0.1732523591129507</v>
+        <v>0.1708360746275162</v>
       </c>
       <c r="I16">
-        <v>0.01452382073235903</v>
+        <v>0.01090450427745182</v>
       </c>
       <c r="J16">
-        <v>0.5924965268472846</v>
+        <v>0.4614226225341866</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1861165861817753</v>
       </c>
       <c r="M16">
-        <v>1.37309865444422</v>
+        <v>0.181926117016026</v>
       </c>
       <c r="N16">
-        <v>0.0165106644551436</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1625594320836896</v>
+        <v>1.432958128431153</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.02231067820215848</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1612050202399686</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.300384282426535</v>
+        <v>1.262272912270078</v>
       </c>
       <c r="C17">
-        <v>0.2311639823133902</v>
+        <v>0.2557081267895285</v>
       </c>
       <c r="D17">
-        <v>0.103640842002612</v>
+        <v>0.116059675540015</v>
       </c>
       <c r="E17">
-        <v>0.0318105508736064</v>
+        <v>0.03281704070548397</v>
       </c>
       <c r="F17">
-        <v>0.9738356698187118</v>
+        <v>0.7712951011536333</v>
       </c>
       <c r="G17">
-        <v>0.8816724142809562</v>
+        <v>0.6710452749987468</v>
       </c>
       <c r="H17">
-        <v>0.1364822236774614</v>
+        <v>0.1338278082569389</v>
       </c>
       <c r="I17">
-        <v>0.0159036678062785</v>
+        <v>0.01190651902103834</v>
       </c>
       <c r="J17">
-        <v>0.6271760030077189</v>
+        <v>0.5073995958181143</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2014039641372065</v>
       </c>
       <c r="M17">
-        <v>1.296391294017639</v>
+        <v>0.1961243254702971</v>
       </c>
       <c r="N17">
-        <v>0.02358518513678121</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1683699374315175</v>
+        <v>1.358080324902062</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.03057013885706539</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1669095485336918</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.281625136636762</v>
+        <v>1.237767651352016</v>
       </c>
       <c r="C18">
-        <v>0.2063835404798482</v>
+        <v>0.2299870597605462</v>
       </c>
       <c r="D18">
-        <v>0.09312279565229886</v>
+        <v>0.1039531232537243</v>
       </c>
       <c r="E18">
-        <v>0.03105380736943125</v>
+        <v>0.03016063397928948</v>
       </c>
       <c r="F18">
-        <v>1.105058746292229</v>
+        <v>0.8685045664686726</v>
       </c>
       <c r="G18">
-        <v>1.027796053397722</v>
+        <v>0.7688100950904584</v>
       </c>
       <c r="H18">
-        <v>0.08381054130333609</v>
+        <v>0.08112126766316408</v>
       </c>
       <c r="I18">
-        <v>0.01604032975261749</v>
+        <v>0.01190778459385822</v>
       </c>
       <c r="J18">
-        <v>0.7040823904715126</v>
+        <v>0.57015174243692</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2286034818645462</v>
       </c>
       <c r="M18">
-        <v>1.225126667778397</v>
+        <v>0.2239658893220522</v>
       </c>
       <c r="N18">
-        <v>0.04524220138579338</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.18922081238399</v>
+        <v>1.29240092316391</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.05468510663578741</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.187445578368596</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.28637074531693</v>
+        <v>1.234309218573316</v>
       </c>
       <c r="C19">
-        <v>0.1847769323492585</v>
+        <v>0.2062808650134116</v>
       </c>
       <c r="D19">
-        <v>0.08386359046534864</v>
+        <v>0.09291391527342796</v>
       </c>
       <c r="E19">
-        <v>0.03825833879398299</v>
+        <v>0.03417243487700894</v>
       </c>
       <c r="F19">
-        <v>1.29153923807138</v>
+        <v>0.9988604923878768</v>
       </c>
       <c r="G19">
-        <v>1.236110091438931</v>
+        <v>0.9074653668740496</v>
       </c>
       <c r="H19">
-        <v>0.03771746837239931</v>
+        <v>0.03520057882231953</v>
       </c>
       <c r="I19">
-        <v>0.01569546413107492</v>
+        <v>0.01176185510602679</v>
       </c>
       <c r="J19">
-        <v>0.8112326670328116</v>
+        <v>0.6457207943113872</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2648339716954773</v>
       </c>
       <c r="M19">
-        <v>1.167537425422324</v>
+        <v>0.2622717699645669</v>
       </c>
       <c r="N19">
-        <v>0.08871067317206638</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2220790934513346</v>
+        <v>1.242469999375231</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1019296125384841</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.219816781140544</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.361483818099117</v>
+        <v>1.293680029566673</v>
       </c>
       <c r="C20">
-        <v>0.1682154293342677</v>
+        <v>0.184191929856695</v>
       </c>
       <c r="D20">
-        <v>0.07661530950249329</v>
+        <v>0.08265681999673546</v>
       </c>
       <c r="E20">
-        <v>0.06653967292727891</v>
+        <v>0.05564614474775809</v>
       </c>
       <c r="F20">
-        <v>1.643829974492817</v>
+        <v>1.22788321137314</v>
       </c>
       <c r="G20">
-        <v>1.629817499285309</v>
+        <v>1.170127123801691</v>
       </c>
       <c r="H20">
-        <v>0.008245033306764959</v>
+        <v>0.006399586185806161</v>
       </c>
       <c r="I20">
-        <v>0.01302324980955927</v>
+        <v>0.009971692964615642</v>
       </c>
       <c r="J20">
-        <v>1.008609172156639</v>
+        <v>0.7536760464361976</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3248300452698487</v>
       </c>
       <c r="M20">
-        <v>1.144397048615104</v>
+        <v>0.3327865939406465</v>
       </c>
       <c r="N20">
-        <v>0.1901044179527389</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2880137571606767</v>
+        <v>1.233271750666745</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2105797597068886</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2847208693955281</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.535974139875833</v>
+        <v>1.458469558513059</v>
       </c>
       <c r="C21">
-        <v>0.1804995575885613</v>
+        <v>0.1988886837422399</v>
       </c>
       <c r="D21">
-        <v>0.07844983646720038</v>
+        <v>0.08944957790046004</v>
       </c>
       <c r="E21">
-        <v>0.07604225591703084</v>
+        <v>0.06275829568354219</v>
       </c>
       <c r="F21">
-        <v>1.803277837699241</v>
+        <v>1.261288183211022</v>
       </c>
       <c r="G21">
-        <v>1.788620436666747</v>
+        <v>1.320381080394583</v>
       </c>
       <c r="H21">
-        <v>0.005041830177076378</v>
+        <v>0.003941806426528638</v>
       </c>
       <c r="I21">
-        <v>0.00905002551089229</v>
+        <v>0.007284128796063882</v>
       </c>
       <c r="J21">
-        <v>1.080176264793323</v>
+        <v>0.6362876196491811</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3160984982045534</v>
       </c>
       <c r="M21">
-        <v>1.284221626937239</v>
+        <v>0.3445399977390409</v>
       </c>
       <c r="N21">
-        <v>0.222590487683064</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.328822551342256</v>
+        <v>1.381048002992401</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2445855156853014</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3249048671358636</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.650742703430268</v>
+        <v>1.567257696954954</v>
       </c>
       <c r="C22">
-        <v>0.1888688218505479</v>
+        <v>0.2087688810079129</v>
       </c>
       <c r="D22">
-        <v>0.07973156212504762</v>
+        <v>0.0945332025420953</v>
       </c>
       <c r="E22">
-        <v>0.0807823256082294</v>
+        <v>0.06623664375854688</v>
       </c>
       <c r="F22">
-        <v>1.900336833956104</v>
+        <v>1.274344703712259</v>
       </c>
       <c r="G22">
-        <v>1.883900347816308</v>
+        <v>1.420677356066079</v>
       </c>
       <c r="H22">
-        <v>0.003516774612357443</v>
+        <v>0.002784620804225257</v>
       </c>
       <c r="I22">
-        <v>0.006663480672208344</v>
+        <v>0.005497669739813915</v>
       </c>
       <c r="J22">
-        <v>1.122663620943797</v>
+        <v>0.5587860472453485</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3082960077462147</v>
       </c>
       <c r="M22">
-        <v>1.377710524734368</v>
+        <v>0.3498664153116948</v>
       </c>
       <c r="N22">
-        <v>0.2381577830658301</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3528517947255523</v>
+        <v>1.478922271979172</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2607343206782815</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3485370539335548</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.590951344722328</v>
+        <v>1.510147826911378</v>
       </c>
       <c r="C23">
-        <v>0.1839186253488947</v>
+        <v>0.2029136142794812</v>
       </c>
       <c r="D23">
-        <v>0.07895255182352656</v>
+        <v>0.09114156194743828</v>
       </c>
       <c r="E23">
-        <v>0.07849652317441524</v>
+        <v>0.06454200112975705</v>
       </c>
       <c r="F23">
-        <v>1.856286284204884</v>
+        <v>1.280095240069727</v>
       </c>
       <c r="G23">
-        <v>1.842008888887619</v>
+        <v>1.366169381240837</v>
       </c>
       <c r="H23">
-        <v>0.004281301251192304</v>
+        <v>0.00335798523125197</v>
       </c>
       <c r="I23">
-        <v>0.007531883756858093</v>
+        <v>0.005993311232306731</v>
       </c>
       <c r="J23">
-        <v>1.104519715318332</v>
+        <v>0.6170706695098858</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3157576475906083</v>
       </c>
       <c r="M23">
-        <v>1.326265075024679</v>
+        <v>0.3509571864206293</v>
       </c>
       <c r="N23">
-        <v>0.2295800106808912</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3401062055720772</v>
+        <v>1.42579343065168</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2519717764765517</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3359817412857851</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.362757069535206</v>
+        <v>1.293812453909595</v>
       </c>
       <c r="C24">
-        <v>0.1662043837647857</v>
+        <v>0.1806865135209392</v>
       </c>
       <c r="D24">
-        <v>0.07608938117864383</v>
+        <v>0.08143264587675958</v>
       </c>
       <c r="E24">
-        <v>0.06947674242097968</v>
+        <v>0.05797840519879927</v>
       </c>
       <c r="F24">
-        <v>1.678379630299162</v>
+        <v>1.252634717847585</v>
       </c>
       <c r="G24">
-        <v>1.669992316514737</v>
+        <v>1.197168260981755</v>
       </c>
       <c r="H24">
-        <v>0.007963675186197505</v>
+        <v>0.006147066618904573</v>
       </c>
       <c r="I24">
-        <v>0.01239269702676804</v>
+        <v>0.009270578969728049</v>
       </c>
       <c r="J24">
-        <v>1.029099742343334</v>
+        <v>0.7689628712107321</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3325614104235584</v>
       </c>
       <c r="M24">
-        <v>1.135006061198283</v>
+        <v>0.3408628161743934</v>
       </c>
       <c r="N24">
-        <v>0.1977114251786816</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.291859773916201</v>
+        <v>1.224685915050259</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2187671677092027</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2884869692685825</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.117765577556469</v>
+        <v>1.063939655511717</v>
       </c>
       <c r="C25">
-        <v>0.1474981466355842</v>
+        <v>0.1535232444096977</v>
       </c>
       <c r="D25">
-        <v>0.07283672161089427</v>
+        <v>0.07481219241777382</v>
       </c>
       <c r="E25">
-        <v>0.05979684637527427</v>
+        <v>0.0510320688256467</v>
       </c>
       <c r="F25">
-        <v>1.489759940455201</v>
+        <v>1.144266389753341</v>
       </c>
       <c r="G25">
-        <v>1.487085360111962</v>
+        <v>1.095266190903402</v>
       </c>
       <c r="H25">
-        <v>0.01343624352032396</v>
+        <v>0.01045410528953144</v>
       </c>
       <c r="I25">
-        <v>0.01963589107526431</v>
+        <v>0.01447606262880452</v>
       </c>
       <c r="J25">
-        <v>0.9492240395709075</v>
+        <v>0.7402405286689913</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3307308671918818</v>
       </c>
       <c r="M25">
-        <v>0.930604054119442</v>
+        <v>0.3099105254730929</v>
       </c>
       <c r="N25">
-        <v>0.1636540391378034</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2400926286732066</v>
+        <v>1.003611942261898</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1821486894852242</v>
       </c>
       <c r="Q25">
+        <v>0.2375501077120958</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
